--- a/static/template.xlsx
+++ b/static/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admini\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\m.work\ai.vscode.learning\python\baoxiao\baoxiao\temp_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
   <si>
     <t>项目ID</t>
-  </si>
-  <si>
-    <t>用途</t>
   </si>
   <si>
     <t>金额</t>
@@ -71,6 +68,30 @@
   <si>
     <t>归属项目选项里
 括号里的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车票2人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,22 +431,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.58203125" customWidth="1"/>
-    <col min="3" max="3" width="16.08203125" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,66 +455,98 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45139</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45328</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>400</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45937</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>350</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>350</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
